--- a/Test import file/Sinh viên/Danh sách sinh viên đủ dữ liệu.xlsx
+++ b/Test import file/Sinh viên/Danh sách sinh viên đủ dữ liệu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Test import file\Sinh viên\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KhoaLuan2020\Test import file\Sinh viên\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="426">
   <si>
     <t>Danh sách sinh viên</t>
   </si>
@@ -50,157 +50,1258 @@
     <t>Giới tính</t>
   </si>
   <si>
-    <t>Nguyễn Tiến Xuân</t>
-  </si>
-  <si>
-    <t>16020028</t>
-  </si>
-  <si>
     <t>06/02/1998</t>
   </si>
   <si>
-    <t>16020028@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>QH-2016-I/CQ-CB</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Văn Thuyết </t>
   </si>
   <si>
-    <t>16020029</t>
-  </si>
-  <si>
     <t>06/02/1999</t>
   </si>
   <si>
-    <t>16020029@vnu.edu.vn</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
     <t xml:space="preserve">Phan Văn Ước </t>
   </si>
   <si>
-    <t>16020030</t>
-  </si>
-  <si>
     <t>06/02/2000</t>
   </si>
   <si>
-    <t>16020030@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mai Khoa Hưởng </t>
   </si>
   <si>
-    <t>16020031</t>
-  </si>
-  <si>
     <t>06/02/2001</t>
   </si>
   <si>
-    <t>16020031@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phạm Công Minh </t>
   </si>
   <si>
-    <t>16020032</t>
-  </si>
-  <si>
     <t>06/02/2002</t>
   </si>
   <si>
-    <t>16020032@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dương Trung Thảo </t>
   </si>
   <si>
-    <t>16020033</t>
-  </si>
-  <si>
     <t>06/02/2003</t>
   </si>
   <si>
-    <t>16020033@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trịnh Văn Thi </t>
   </si>
   <si>
-    <t>16020034</t>
-  </si>
-  <si>
     <t>06/02/2004</t>
   </si>
   <si>
-    <t>16020034@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">An Văn Thịnh </t>
   </si>
   <si>
-    <t>16020035</t>
-  </si>
-  <si>
     <t>06/02/2005</t>
   </si>
   <si>
-    <t>16020035@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lâm Văn Thư </t>
   </si>
   <si>
-    <t>16020036</t>
-  </si>
-  <si>
     <t>06/02/2006</t>
   </si>
   <si>
-    <t>16020036@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bùi Anh Văn </t>
   </si>
   <si>
-    <t>16020037</t>
-  </si>
-  <si>
     <t>06/02/2007</t>
   </si>
   <si>
-    <t>16020037@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hồ Đức Anh </t>
   </si>
   <si>
-    <t>16020038</t>
-  </si>
-  <si>
     <t>06/02/2008</t>
   </si>
   <si>
-    <t>16020038@vnu.edu.vn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trần Việt Đức </t>
   </si>
   <si>
-    <t>16020039</t>
-  </si>
-  <si>
     <t>06/02/2009</t>
   </si>
   <si>
-    <t>16020039@vnu.edu.vn</t>
+    <t xml:space="preserve">Nguyễn Thị Hạnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Bảo Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Anh Quân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Đức Thọ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Văn Vinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Định </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Quang Thành </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Văn Bắc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Đăng Trung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Đình Hải </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trịnh Đức Lương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Minh Tú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Nam Trung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Nam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Thanh Sơn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Hiệp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Quốc Việt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Văn Thưởng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Tùng Dương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Hải </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiều Quang Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thành Lân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Công Nhật </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Đức Linh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Vũ Thuần </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tất Thắng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Phúc Ân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Xoan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Minh Nghĩa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Đức Toàn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Duy Hào </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Anh Tuấn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lô Trung Lương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Quang Huy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Tùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bùi Hùng Tráng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Tuấn Thiện </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Duy Quân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hồng Đông </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Huy Phát </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Công Anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uông Thị Vân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Vượng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Ngọc Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Việt Đức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Đức Thành </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Thị Lệ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đào Văn Dương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tiến Đạt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Huy Thái </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lý Quang Thao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Cường </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tuấn Anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Hoàng Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Nguyễn Ngọc Biên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Tuấn Minh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Anh Dũng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Hạnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Minh Hiếu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Văn Lợi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thị Quỳnh Mai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thế Ngọc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Nhất </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Anh Dương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Mạnh Linh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Nguyễn Hoàng Hiệp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Phòng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thế Anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Võ Thắng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Trung Đức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Đức Anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Hiếu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Hoan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Thành </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Xuân An </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trịnh Phan Anh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Lâm Bách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thế Ban </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Văn Đại </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Ngọc Đam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hải Đăng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Đức Đạt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ Hữu Đô </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tiến Dũng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Văn Dũng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Duy </t>
+  </si>
+  <si>
+    <t>06/02/2010</t>
+  </si>
+  <si>
+    <t>06/02/2011</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>06/02/2019</t>
+  </si>
+  <si>
+    <t>06/02/2020</t>
+  </si>
+  <si>
+    <t>06/02/2021</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>06/02/2023</t>
+  </si>
+  <si>
+    <t>06/02/2024</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>06/02/2026</t>
+  </si>
+  <si>
+    <t>06/02/2027</t>
+  </si>
+  <si>
+    <t>06/02/2028</t>
+  </si>
+  <si>
+    <t>06/02/2029</t>
+  </si>
+  <si>
+    <t>06/02/2030</t>
+  </si>
+  <si>
+    <t>06/02/2031</t>
+  </si>
+  <si>
+    <t>06/02/2032</t>
+  </si>
+  <si>
+    <t>06/02/2033</t>
+  </si>
+  <si>
+    <t>06/02/2034</t>
+  </si>
+  <si>
+    <t>06/02/2035</t>
+  </si>
+  <si>
+    <t>06/02/2036</t>
+  </si>
+  <si>
+    <t>06/02/2037</t>
+  </si>
+  <si>
+    <t>06/02/2038</t>
+  </si>
+  <si>
+    <t>06/02/2039</t>
+  </si>
+  <si>
+    <t>06/02/2040</t>
+  </si>
+  <si>
+    <t>06/02/2041</t>
+  </si>
+  <si>
+    <t>06/02/2042</t>
+  </si>
+  <si>
+    <t>06/02/2043</t>
+  </si>
+  <si>
+    <t>06/02/2044</t>
+  </si>
+  <si>
+    <t>06/02/2045</t>
+  </si>
+  <si>
+    <t>06/02/2046</t>
+  </si>
+  <si>
+    <t>06/02/2047</t>
+  </si>
+  <si>
+    <t>06/02/2048</t>
+  </si>
+  <si>
+    <t>06/02/2049</t>
+  </si>
+  <si>
+    <t>06/02/2050</t>
+  </si>
+  <si>
+    <t>06/02/2051</t>
+  </si>
+  <si>
+    <t>06/02/2052</t>
+  </si>
+  <si>
+    <t>06/02/2053</t>
+  </si>
+  <si>
+    <t>06/02/2054</t>
+  </si>
+  <si>
+    <t>06/02/2055</t>
+  </si>
+  <si>
+    <t>06/02/2056</t>
+  </si>
+  <si>
+    <t>06/02/2057</t>
+  </si>
+  <si>
+    <t>06/02/2058</t>
+  </si>
+  <si>
+    <t>06/02/2059</t>
+  </si>
+  <si>
+    <t>06/02/2060</t>
+  </si>
+  <si>
+    <t>06/02/2061</t>
+  </si>
+  <si>
+    <t>06/02/2062</t>
+  </si>
+  <si>
+    <t>06/02/2063</t>
+  </si>
+  <si>
+    <t>06/02/2064</t>
+  </si>
+  <si>
+    <t>06/02/2065</t>
+  </si>
+  <si>
+    <t>06/02/2066</t>
+  </si>
+  <si>
+    <t>06/02/2067</t>
+  </si>
+  <si>
+    <t>06/02/2068</t>
+  </si>
+  <si>
+    <t>06/02/2069</t>
+  </si>
+  <si>
+    <t>06/02/2070</t>
+  </si>
+  <si>
+    <t>06/02/2071</t>
+  </si>
+  <si>
+    <t>06/02/2072</t>
+  </si>
+  <si>
+    <t>06/02/2073</t>
+  </si>
+  <si>
+    <t>06/02/2074</t>
+  </si>
+  <si>
+    <t>06/02/2075</t>
+  </si>
+  <si>
+    <t>06/02/2076</t>
+  </si>
+  <si>
+    <t>06/02/2077</t>
+  </si>
+  <si>
+    <t>06/02/2078</t>
+  </si>
+  <si>
+    <t>06/02/2079</t>
+  </si>
+  <si>
+    <t>06/02/2080</t>
+  </si>
+  <si>
+    <t>06/02/2081</t>
+  </si>
+  <si>
+    <t>06/02/2082</t>
+  </si>
+  <si>
+    <t>06/02/2083</t>
+  </si>
+  <si>
+    <t>06/02/2084</t>
+  </si>
+  <si>
+    <t>06/02/2085</t>
+  </si>
+  <si>
+    <t>06/02/2086</t>
+  </si>
+  <si>
+    <t>06/02/2087</t>
+  </si>
+  <si>
+    <t>06/02/2088</t>
+  </si>
+  <si>
+    <t>06/02/2089</t>
+  </si>
+  <si>
+    <t>06/02/2090</t>
+  </si>
+  <si>
+    <t>06/02/2091</t>
+  </si>
+  <si>
+    <t>06/02/2092</t>
+  </si>
+  <si>
+    <t>06/02/2093</t>
+  </si>
+  <si>
+    <t>06/02/2094</t>
+  </si>
+  <si>
+    <t>06/02/2095</t>
+  </si>
+  <si>
+    <t>06/02/2096</t>
+  </si>
+  <si>
+    <t>06/02/2097</t>
+  </si>
+  <si>
+    <t>14020612@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020723@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020230@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020304@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020425@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020441@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020443@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020462@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020547@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020648@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020658@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020661@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020665@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020372@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020448@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020556@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020108@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020796@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020021@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020490@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020141@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020277@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>14020684@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021739@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022091@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022509@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022795@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022797@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021171@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022217@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022435@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022440@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022455@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022461@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022475@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022777@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15020888@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021280@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021295@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021358@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021362@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021376@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021832@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021833@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021857@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021894@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022833@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022836@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021531@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021818@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022286@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022295@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15020928@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021834@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022005@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022013@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022058@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021027@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021041@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021053@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021373@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021610@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021837@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022865@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15020971@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021108@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021745@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021754@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021770@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021779@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021780@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021988@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021476@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021478@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021492@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021924@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021948@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021952@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021957@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15021080@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022661@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>15022881@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020002@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020003@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020004@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020462@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020503@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020507@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020508@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020509@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020510@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020517@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020518@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020519@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020520@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020523@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020524@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020532@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020535@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t>16020540@vnu.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59CĐT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59CHKT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59CNTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59HTTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59KHMT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59KHMT-NVCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59KTĐT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59TT-MMT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60CĐT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60CHKT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60CNTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60ĐTVT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60HTTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60KHMT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60KHMT-NVCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60TDL-MMT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60VLKT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K61CĐT </t>
+  </si>
+  <si>
+    <t>14020612</t>
+  </si>
+  <si>
+    <t>14020723</t>
+  </si>
+  <si>
+    <t>14020230</t>
+  </si>
+  <si>
+    <t>14020304</t>
+  </si>
+  <si>
+    <t>14020425</t>
+  </si>
+  <si>
+    <t>14020441</t>
+  </si>
+  <si>
+    <t>14020443</t>
+  </si>
+  <si>
+    <t>14020462</t>
+  </si>
+  <si>
+    <t>14020547</t>
+  </si>
+  <si>
+    <t>14020648</t>
+  </si>
+  <si>
+    <t>14020658</t>
+  </si>
+  <si>
+    <t>14020661</t>
+  </si>
+  <si>
+    <t>14020665</t>
+  </si>
+  <si>
+    <t>14020372</t>
+  </si>
+  <si>
+    <t>14020448</t>
+  </si>
+  <si>
+    <t>14020556</t>
+  </si>
+  <si>
+    <t>14020108</t>
+  </si>
+  <si>
+    <t>14020796</t>
+  </si>
+  <si>
+    <t>14020021</t>
+  </si>
+  <si>
+    <t>14020490</t>
+  </si>
+  <si>
+    <t>14020141</t>
+  </si>
+  <si>
+    <t>14020277</t>
+  </si>
+  <si>
+    <t>14020684</t>
+  </si>
+  <si>
+    <t>15021739</t>
+  </si>
+  <si>
+    <t>15022091</t>
+  </si>
+  <si>
+    <t>15022509</t>
+  </si>
+  <si>
+    <t>15022795</t>
+  </si>
+  <si>
+    <t>15022797</t>
+  </si>
+  <si>
+    <t>15021171</t>
+  </si>
+  <si>
+    <t>15022217</t>
+  </si>
+  <si>
+    <t>15022435</t>
+  </si>
+  <si>
+    <t>15022440</t>
+  </si>
+  <si>
+    <t>15022455</t>
+  </si>
+  <si>
+    <t>15022461</t>
+  </si>
+  <si>
+    <t>15022475</t>
+  </si>
+  <si>
+    <t>15022777</t>
+  </si>
+  <si>
+    <t>15020888</t>
+  </si>
+  <si>
+    <t>15021280</t>
+  </si>
+  <si>
+    <t>15021295</t>
+  </si>
+  <si>
+    <t>15021358</t>
+  </si>
+  <si>
+    <t>15021362</t>
+  </si>
+  <si>
+    <t>15021376</t>
+  </si>
+  <si>
+    <t>15021832</t>
+  </si>
+  <si>
+    <t>15021833</t>
+  </si>
+  <si>
+    <t>15021857</t>
+  </si>
+  <si>
+    <t>15021894</t>
+  </si>
+  <si>
+    <t>15022833</t>
+  </si>
+  <si>
+    <t>15022836</t>
+  </si>
+  <si>
+    <t>15021531</t>
+  </si>
+  <si>
+    <t>15021818</t>
+  </si>
+  <si>
+    <t>15022286</t>
+  </si>
+  <si>
+    <t>15022295</t>
+  </si>
+  <si>
+    <t>15020928</t>
+  </si>
+  <si>
+    <t>15021834</t>
+  </si>
+  <si>
+    <t>15022005</t>
+  </si>
+  <si>
+    <t>15022013</t>
+  </si>
+  <si>
+    <t>15022058</t>
+  </si>
+  <si>
+    <t>15021027</t>
+  </si>
+  <si>
+    <t>15021041</t>
+  </si>
+  <si>
+    <t>15021053</t>
+  </si>
+  <si>
+    <t>15021373</t>
+  </si>
+  <si>
+    <t>15021610</t>
+  </si>
+  <si>
+    <t>15021837</t>
+  </si>
+  <si>
+    <t>15022865</t>
+  </si>
+  <si>
+    <t>15020971</t>
+  </si>
+  <si>
+    <t>15021108</t>
+  </si>
+  <si>
+    <t>15021745</t>
+  </si>
+  <si>
+    <t>15021754</t>
+  </si>
+  <si>
+    <t>15021770</t>
+  </si>
+  <si>
+    <t>15021779</t>
+  </si>
+  <si>
+    <t>15021780</t>
+  </si>
+  <si>
+    <t>15021988</t>
+  </si>
+  <si>
+    <t>15021476</t>
+  </si>
+  <si>
+    <t>15021478</t>
+  </si>
+  <si>
+    <t>15021492</t>
+  </si>
+  <si>
+    <t>15021924</t>
+  </si>
+  <si>
+    <t>15021948</t>
+  </si>
+  <si>
+    <t>15021952</t>
+  </si>
+  <si>
+    <t>15021957</t>
+  </si>
+  <si>
+    <t>15021080</t>
+  </si>
+  <si>
+    <t>15022661</t>
+  </si>
+  <si>
+    <t>15022881</t>
+  </si>
+  <si>
+    <t>16020002</t>
+  </si>
+  <si>
+    <t>16020003</t>
+  </si>
+  <si>
+    <t>16020004</t>
+  </si>
+  <si>
+    <t>16020462</t>
+  </si>
+  <si>
+    <t>16020503</t>
+  </si>
+  <si>
+    <t>16020507</t>
+  </si>
+  <si>
+    <t>16020508</t>
+  </si>
+  <si>
+    <t>16020509</t>
+  </si>
+  <si>
+    <t>16020510</t>
+  </si>
+  <si>
+    <t>16020517</t>
+  </si>
+  <si>
+    <t>16020518</t>
+  </si>
+  <si>
+    <t>16020519</t>
+  </si>
+  <si>
+    <t>16020520</t>
+  </si>
+  <si>
+    <t>16020523</t>
+  </si>
+  <si>
+    <t>16020524</t>
+  </si>
+  <si>
+    <t>16020532</t>
+  </si>
+  <si>
+    <t>16020535</t>
+  </si>
+  <si>
+    <t>16020540</t>
   </si>
 </sst>
 </file>
@@ -210,7 +1311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,25 +1340,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -393,11 +1479,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +1510,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,33 +1534,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,40 +1851,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -819,7 +1897,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -828,7 +1906,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,280 +1929,2304 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="B16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="B21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="B22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="B24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="B26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="B28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="B30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="B32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>30</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="B34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="B35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="B36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>33</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="B37" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>34</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B38" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>35</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="B39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>36</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>37</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="B41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>38</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="B42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>39</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="B43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="B44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>41</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="B45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>42</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>9</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="B46" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>43</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="B47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>44</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="B48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>45</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="B49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>46</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="B50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>47</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="B51" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>48</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="B52" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>49</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="B53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>50</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>11</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="B54" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>51</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="B55" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>52</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="B56" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>53</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="B57" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>54</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>12</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="B58" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
         <v>55</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="B59" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>56</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="B60" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
         <v>57</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="B61" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
         <v>58</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>13</v>
+      <c r="B62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>59</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>60</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>61</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>62</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>63</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>64</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>65</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>66</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>67</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>68</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>69</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>70</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>71</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>72</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>73</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>74</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>75</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>76</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>77</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>78</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>79</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>80</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>81</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>82</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>83</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>84</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>85</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>86</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>87</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>88</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>89</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>90</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>91</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>92</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>93</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>94</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>95</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>96</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>97</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>98</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>99</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>100</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
